--- a/templates/test-suite-template.xlsx
+++ b/templates/test-suite-template.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20361"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\cdmgtri\niem-test-suite\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\model\niem-model-qa\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5431030-A9C7-4A68-8081-C5BDA930D1EC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9780"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -65,9 +66,6 @@
     <t>Scope</t>
   </si>
   <si>
-    <t>Comments</t>
-  </si>
-  <si>
     <t>Exception IDs</t>
   </si>
   <si>
@@ -105,12 +103,15 @@
   </si>
   <si>
     <t>type_name_invalid_codeSimpleType</t>
+  </si>
+  <si>
+    <t>Notes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -247,24 +248,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:O2" totalsRowShown="0">
-  <autoFilter ref="A1:O2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:O2" totalsRowShown="0">
+  <autoFilter ref="A1:O2" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="15">
-    <tableColumn id="1" name="ID" dataDxfId="8"/>
-    <tableColumn id="10" name="Description" dataDxfId="7"/>
-    <tableColumn id="17" name="Category" dataDxfId="6"/>
-    <tableColumn id="2" name="Component"/>
-    <tableColumn id="3" name="Field"/>
-    <tableColumn id="14" name="Scope"/>
-    <tableColumn id="11" name="Source"/>
-    <tableColumn id="9" name="Severity"/>
-    <tableColumn id="21" name="Spec"/>
-    <tableColumn id="18" name="Rule" dataDxfId="5"/>
-    <tableColumn id="4" name="Valid Example" dataDxfId="4"/>
-    <tableColumn id="5" name="Invalid Example" dataDxfId="3"/>
-    <tableColumn id="15" name="Exceptions" dataDxfId="2"/>
-    <tableColumn id="20" name="Exception IDs" dataDxfId="1"/>
-    <tableColumn id="19" name="Comments" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID" dataDxfId="8"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Description" dataDxfId="7"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Category" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Component"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Field"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Scope"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Source"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Severity"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="Spec"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Rule" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Valid Example" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Invalid Example" dataDxfId="3"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Exceptions" dataDxfId="2"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="Exception IDs" dataDxfId="1"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Notes" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -532,31 +533,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30" style="2" customWidth="1"/>
-    <col min="2" max="2" width="50.77734375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="18" style="2" customWidth="1"/>
-    <col min="4" max="6" width="13.5546875" customWidth="1"/>
-    <col min="7" max="7" width="15.77734375" customWidth="1"/>
-    <col min="8" max="9" width="11.88671875" customWidth="1"/>
-    <col min="10" max="10" width="10.77734375" customWidth="1"/>
-    <col min="11" max="12" width="34.77734375" customWidth="1"/>
-    <col min="13" max="14" width="26.77734375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="27.21875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="8.88671875" style="1"/>
-    <col min="17" max="17" width="31.5546875" customWidth="1"/>
+    <col min="4" max="6" width="13.5703125" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" customWidth="1"/>
+    <col min="8" max="9" width="11.85546875" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" customWidth="1"/>
+    <col min="11" max="12" width="34.7109375" customWidth="1"/>
+    <col min="13" max="14" width="26.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="27.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="8.85546875" style="1"/>
+    <col min="17" max="17" width="31.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -576,40 +577,40 @@
         <v>12</v>
       </c>
       <c r="G1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H1" t="s">
         <v>2</v>
       </c>
       <c r="I1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="M1" t="s">
         <v>5</v>
       </c>
       <c r="N1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O1" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="P1"/>
     </row>
-    <row r="2" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>6</v>
@@ -618,7 +619,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
@@ -630,16 +631,16 @@
         <v>3</v>
       </c>
       <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="K2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>21</v>
       </c>
       <c r="P2"/>
     </row>
